--- a/data/Medico.xlsx
+++ b/data/Medico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blasferp\Documents\GitHub\Hospital\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blasferp\Documents\GitHub\Sanatorio-Ingreso-Camas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951FCE5-9EBF-4C7F-8ACB-A372E14ECA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3D5B7C-285E-4777-928D-DFC856541300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DNI</t>
   </si>
@@ -35,18 +35,6 @@
   </si>
   <si>
     <t>EMAIL</t>
-  </si>
-  <si>
-    <t>MARIA CECILIA</t>
-  </si>
-  <si>
-    <t>PACIOS</t>
-  </si>
-  <si>
-    <t>3814596770</t>
-  </si>
-  <si>
-    <t>negrapacios@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -448,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,23 +468,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>24802932</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
